--- a/charles.xlsx
+++ b/charles.xlsx
@@ -22,28 +22,28 @@
     <t>degree</t>
   </si>
   <si>
-    <t>courseName</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>overview</t>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>course_code</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>locations</t>
+    <t>location</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>session</t>
+    <t>year_acquisition</t>
   </si>
   <si>
     <t>AQF level</t>
@@ -52,10 +52,10 @@
     <t>ATAR</t>
   </si>
   <si>
-    <t>International_fee</t>
-  </si>
-  <si>
-    <t>Domestic_fee</t>
+    <t>International_full</t>
+  </si>
+  <si>
+    <t>Domestic_full</t>
   </si>
   <si>
     <t>Careers</t>
@@ -4644,10 +4644,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -4664,6 +4664,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -4672,112 +4680,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4794,7 +4696,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4814,6 +4808,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -4824,25 +4825,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4860,19 +4879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4884,25 +4897,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4914,7 +4939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4926,67 +4951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5004,7 +4975,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5033,11 +5034,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5098,6 +5114,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5106,181 +5131,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5632,7 +5636,7 @@
   <dimension ref="A1:O336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5644,13 +5648,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -5665,7 +5669,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
